--- a/biology/Botanique/Gymnocalycium/Gymnocalycium.xlsx
+++ b/biology/Botanique/Gymnocalycium/Gymnocalycium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gymnocalycium est un genre de plantes à fleurs de la famille des Cactaceae composé de 70 espèces environ. Il est parfois appelé cactus menton ou encore en raison de la forme de ses touffes d'aiguilles cactus araignée. Son nom vient du grec et signifie 'calice nu' en se référant aux bourgeons floraux qui ne comportent ni poils, ni épines.
 Leur origine est l'Argentine, une partie de l'Uruguay, le Paraguay, le sud de la Bolivie et une partie de Brésil. La plupart des espèces sont petites, de 4 à 15 centimètres. Elles sont très appréciées pour leur floraison facile et les couleurs vives des fleurs.
@@ -512,7 +524,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Gymnocalycium albiareolatum
 Gymnocalycium angelae
@@ -572,7 +586,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Brachycalycium Backeb.
 			Gymnocalycium mihanovichii 'Hibotan' est un cultivar mutant sans chlorophylle
